--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-wood.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-wood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BCE62E-4321-C24E-AE8A-4A4DBFEE7057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA4BE85-FEC9-C447-AD23-57186B86002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="LCI" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$366</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LCI!$A$1:$K$365</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="159">
   <si>
     <t>Activity</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>aluminium oxide, metallurgical</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from atmosphere</t>
   </si>
   <si>
     <t>Methanol process adapted from Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway, Hank et al. 2019. https://doi.org/10.1039/C9SE00658C</t>
@@ -449,9 +446,6 @@
   </si>
   <si>
     <t>Carbon dioxide, in air</t>
-  </si>
-  <si>
-    <t>carbon dioxide, captured from atmosphere, with a solvent-based direct air capture system, 1MtCO2</t>
   </si>
   <si>
     <t>hydrogen production, gaseous, 30 bar, from PEM electrolysis, from grid electricity</t>
@@ -675,7 +669,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -706,13 +700,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,9 +720,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,7 +760,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -874,7 +866,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,7 +1008,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,69 +1038,69 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
@@ -1140,7 +1132,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9">
@@ -1210,7 +1202,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -1245,7 +1237,7 @@
     </row>
     <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -1288,43 +1280,43 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="J18" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -1356,7 +1348,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9">
@@ -1426,7 +1418,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9">
@@ -1461,7 +1453,7 @@
     </row>
     <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9">
@@ -1496,46 +1488,46 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="E27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="H27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="I27" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="K27" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="K27" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20">
@@ -1569,7 +1561,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20">
@@ -1645,7 +1637,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20">
@@ -1683,7 +1675,7 @@
     </row>
     <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="20">
@@ -1721,46 +1713,46 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="E36" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="G36" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="H36" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H36" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="I36" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="K36" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="K36" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20">
@@ -1794,7 +1786,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20">
@@ -1870,7 +1862,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20">
@@ -1908,7 +1900,7 @@
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20">
@@ -1954,10 +1946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:K365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
-      <selection activeCell="D321" sqref="D321"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="A350" sqref="A350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1973,7 +1965,7 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -1981,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2005,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2049,13 +2041,13 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
         <v>49</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>50</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
       </c>
       <c r="J10" t="s">
         <v>28</v>
@@ -2066,7 +2058,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2084,15 +2076,15 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>1.00057</v>
@@ -2107,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2132,13 +2124,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -2147,12 +2139,12 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2167,12 +2159,12 @@
         <v>14</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="5">
         <v>2.5999999999999998E-10</v>
@@ -2187,12 +2179,12 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2207,18 +2199,18 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -2227,52 +2219,52 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="K19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s">
         <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>3.2599999999999997E-2</v>
@@ -2281,24 +2273,24 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
@@ -2307,12 +2299,12 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" s="5">
         <f>(B12-1)*3.14</f>
@@ -2336,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -2360,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -2404,13 +2396,13 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
         <v>49</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>50</v>
-      </c>
-      <c r="I32" t="s">
-        <v>51</v>
       </c>
       <c r="J32" t="s">
         <v>28</v>
@@ -2421,7 +2413,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2439,15 +2431,15 @@
         <v>100</v>
       </c>
       <c r="J33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34">
         <v>1.00057</v>
@@ -2462,7 +2454,7 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
@@ -2487,13 +2479,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -2502,12 +2494,12 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2522,12 +2514,12 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="5">
         <v>2.5999999999999998E-10</v>
@@ -2542,12 +2534,12 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2562,18 +2554,18 @@
         <v>14</v>
       </c>
       <c r="K39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
         <v>27</v>
@@ -2582,52 +2574,52 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s">
         <v>47</v>
-      </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
         <v>64</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>3.2599999999999997E-2</v>
@@ -2636,24 +2628,24 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="K43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B44" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
         <v>27</v>
@@ -2662,12 +2654,12 @@
         <v>14</v>
       </c>
       <c r="K44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="5">
         <f>(B34-1)*3.14</f>
@@ -2691,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
@@ -2715,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
@@ -2759,13 +2751,13 @@
         <v>4</v>
       </c>
       <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s">
         <v>49</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>50</v>
-      </c>
-      <c r="I54" t="s">
-        <v>51</v>
       </c>
       <c r="J54" t="s">
         <v>28</v>
@@ -2776,7 +2768,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2794,15 +2786,15 @@
         <v>100</v>
       </c>
       <c r="J55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56">
         <v>1.00057</v>
@@ -2817,7 +2809,7 @@
         <v>14</v>
       </c>
       <c r="K56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
@@ -2842,13 +2834,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -2857,12 +2849,12 @@
         <v>14</v>
       </c>
       <c r="K58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="5">
         <v>5.8399999999999999E-4</v>
@@ -2877,12 +2869,12 @@
         <v>14</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B60" s="5">
         <v>2.5999999999999998E-10</v>
@@ -2897,12 +2889,12 @@
         <v>14</v>
       </c>
       <c r="K60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -2917,18 +2909,18 @@
         <v>14</v>
       </c>
       <c r="K61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -2937,52 +2929,52 @@
         <v>14</v>
       </c>
       <c r="K62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C63" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s">
         <v>47</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
         <v>64</v>
-      </c>
-      <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="K64" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>3.2599999999999997E-2</v>
@@ -2991,24 +2983,24 @@
         <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D66" t="s">
         <v>27</v>
@@ -3017,12 +3009,12 @@
         <v>14</v>
       </c>
       <c r="K66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67" s="5">
         <f>(B56-1)*3.14</f>
@@ -3046,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -3070,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
@@ -3114,13 +3106,13 @@
         <v>4</v>
       </c>
       <c r="G76" t="s">
+        <v>48</v>
+      </c>
+      <c r="H76" t="s">
         <v>49</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>50</v>
-      </c>
-      <c r="I76" t="s">
-        <v>51</v>
       </c>
       <c r="J76" t="s">
         <v>28</v>
@@ -3131,7 +3123,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -3149,15 +3141,15 @@
         <v>100</v>
       </c>
       <c r="J77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B78">
         <v>1.00057</v>
@@ -3172,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="K78" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
@@ -3197,13 +3189,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -3212,12 +3204,12 @@
         <v>14</v>
       </c>
       <c r="K80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3232,12 +3224,12 @@
         <v>14</v>
       </c>
       <c r="K81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" s="5">
         <v>2.5999999999999998E-10</v>
@@ -3252,12 +3244,12 @@
         <v>14</v>
       </c>
       <c r="K82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3272,18 +3264,18 @@
         <v>14</v>
       </c>
       <c r="K83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B84" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
@@ -3292,52 +3284,52 @@
         <v>14</v>
       </c>
       <c r="K84" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C85" t="s">
+        <v>46</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s">
         <v>47</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="K85" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B86">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s">
         <v>64</v>
-      </c>
-      <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B87">
         <v>3.2599999999999997E-2</v>
@@ -3346,24 +3338,24 @@
         <v>25</v>
       </c>
       <c r="D87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
       </c>
       <c r="K87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D88" t="s">
         <v>27</v>
@@ -3372,12 +3364,12 @@
         <v>14</v>
       </c>
       <c r="K88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B89" s="5">
         <f>(B78-1)*3.14</f>
@@ -3404,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
@@ -3428,7 +3420,7 @@
         <v>2</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
@@ -3472,13 +3464,13 @@
         <v>4</v>
       </c>
       <c r="G99" t="s">
+        <v>48</v>
+      </c>
+      <c r="H99" t="s">
         <v>49</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>50</v>
-      </c>
-      <c r="I99" t="s">
-        <v>51</v>
       </c>
       <c r="J99" t="s">
         <v>28</v>
@@ -3489,7 +3481,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3507,15 +3499,15 @@
         <v>100</v>
       </c>
       <c r="J100" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B101">
         <v>1.00057</v>
@@ -3530,7 +3522,7 @@
         <v>14</v>
       </c>
       <c r="K101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
@@ -3555,13 +3547,13 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B103">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
@@ -3570,12 +3562,12 @@
         <v>14</v>
       </c>
       <c r="K103" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B104" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3590,12 +3582,12 @@
         <v>14</v>
       </c>
       <c r="K104" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B105" s="5">
         <v>2.5999999999999998E-10</v>
@@ -3610,12 +3602,12 @@
         <v>14</v>
       </c>
       <c r="K105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B106" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3630,18 +3622,18 @@
         <v>14</v>
       </c>
       <c r="K106" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B107" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C107" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
@@ -3650,52 +3642,52 @@
         <v>14</v>
       </c>
       <c r="K107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B108" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C108" t="s">
+        <v>46</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" t="s">
         <v>47</v>
-      </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-      <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="K108" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B109">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D109" t="s">
+        <v>63</v>
+      </c>
+      <c r="F109" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" t="s">
         <v>64</v>
-      </c>
-      <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="K109" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B110">
         <v>3.2599999999999997E-2</v>
@@ -3704,24 +3696,24 @@
         <v>25</v>
       </c>
       <c r="D110" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
       </c>
       <c r="K110" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B111" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D111" t="s">
         <v>27</v>
@@ -3730,12 +3722,12 @@
         <v>14</v>
       </c>
       <c r="K111" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B112" s="5">
         <f>(B101-1)*3.14</f>
@@ -3759,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,7 +3775,7 @@
         <v>2</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
@@ -3827,13 +3819,13 @@
         <v>4</v>
       </c>
       <c r="G121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" t="s">
         <v>49</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>50</v>
-      </c>
-      <c r="I121" t="s">
-        <v>51</v>
       </c>
       <c r="J121" t="s">
         <v>28</v>
@@ -3844,7 +3836,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3862,15 +3854,15 @@
         <v>100</v>
       </c>
       <c r="J122" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B123">
         <v>1.00057</v>
@@ -3885,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="K123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
@@ -3910,13 +3902,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B125">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -3925,12 +3917,12 @@
         <v>14</v>
       </c>
       <c r="K125" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B126" s="5">
         <v>5.8399999999999999E-4</v>
@@ -3945,12 +3937,12 @@
         <v>14</v>
       </c>
       <c r="K126" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B127" s="5">
         <v>2.5999999999999998E-10</v>
@@ -3965,12 +3957,12 @@
         <v>14</v>
       </c>
       <c r="K127" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B128" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -3985,18 +3977,18 @@
         <v>14</v>
       </c>
       <c r="K128" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B129" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D129" t="s">
         <v>27</v>
@@ -4005,52 +3997,52 @@
         <v>14</v>
       </c>
       <c r="K129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B130" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>14</v>
+      </c>
+      <c r="K130" t="s">
         <v>47</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="K130" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B131">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D131" t="s">
+        <v>63</v>
+      </c>
+      <c r="F131" t="s">
+        <v>14</v>
+      </c>
+      <c r="K131" t="s">
         <v>64</v>
-      </c>
-      <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B132">
         <v>3.2599999999999997E-2</v>
@@ -4059,24 +4051,24 @@
         <v>25</v>
       </c>
       <c r="D132" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
       <c r="K132" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B133" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
         <v>27</v>
@@ -4085,12 +4077,12 @@
         <v>14</v>
       </c>
       <c r="K133" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B134" s="5">
         <f>(B123-1)*3.14</f>
@@ -4114,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
@@ -4138,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
@@ -4182,13 +4174,13 @@
         <v>4</v>
       </c>
       <c r="G143" t="s">
+        <v>48</v>
+      </c>
+      <c r="H143" t="s">
         <v>49</v>
       </c>
-      <c r="H143" t="s">
+      <c r="I143" t="s">
         <v>50</v>
-      </c>
-      <c r="I143" t="s">
-        <v>51</v>
       </c>
       <c r="J143" t="s">
         <v>28</v>
@@ -4199,7 +4191,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4217,15 +4209,15 @@
         <v>100</v>
       </c>
       <c r="J144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145">
         <v>1.00057</v>
@@ -4240,7 +4232,7 @@
         <v>14</v>
       </c>
       <c r="K145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -4265,13 +4257,13 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B147">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C147" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D147" t="s">
         <v>13</v>
@@ -4280,12 +4272,12 @@
         <v>14</v>
       </c>
       <c r="K147" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B148" s="5">
         <v>5.8399999999999999E-4</v>
@@ -4300,12 +4292,12 @@
         <v>14</v>
       </c>
       <c r="K148" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B149" s="5">
         <v>2.5999999999999998E-10</v>
@@ -4320,12 +4312,12 @@
         <v>14</v>
       </c>
       <c r="K149" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B150" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -4340,18 +4332,18 @@
         <v>14</v>
       </c>
       <c r="K150" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B151" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D151" t="s">
         <v>27</v>
@@ -4360,52 +4352,52 @@
         <v>14</v>
       </c>
       <c r="K151" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B152" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C152" t="s">
+        <v>46</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>14</v>
+      </c>
+      <c r="K152" t="s">
         <v>47</v>
-      </c>
-      <c r="D152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="K152" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B153">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" t="s">
+        <v>14</v>
+      </c>
+      <c r="K153" t="s">
         <v>64</v>
-      </c>
-      <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="K153" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B154">
         <v>3.2599999999999997E-2</v>
@@ -4414,24 +4406,24 @@
         <v>25</v>
       </c>
       <c r="D154" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
       </c>
       <c r="K154" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B155" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
@@ -4440,12 +4432,12 @@
         <v>14</v>
       </c>
       <c r="K155" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B156" s="5">
         <f>(B145-1)*3.14</f>
@@ -4469,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -4493,7 +4485,7 @@
         <v>2</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
@@ -4537,13 +4529,13 @@
         <v>4</v>
       </c>
       <c r="G165" t="s">
+        <v>48</v>
+      </c>
+      <c r="H165" t="s">
         <v>49</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>50</v>
-      </c>
-      <c r="I165" t="s">
-        <v>51</v>
       </c>
       <c r="J165" t="s">
         <v>28</v>
@@ -4554,7 +4546,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4572,15 +4564,15 @@
         <v>100</v>
       </c>
       <c r="J166" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K166" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B167">
         <v>1.00057</v>
@@ -4595,7 +4587,7 @@
         <v>14</v>
       </c>
       <c r="K167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
@@ -4620,13 +4612,13 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B169">
         <v>-1.6799999999999999E-4</v>
       </c>
       <c r="C169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D169" t="s">
         <v>13</v>
@@ -4635,12 +4627,12 @@
         <v>14</v>
       </c>
       <c r="K169" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B170" s="5">
         <v>5.8399999999999999E-4</v>
@@ -4655,12 +4647,12 @@
         <v>14</v>
       </c>
       <c r="K170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B171" s="5">
         <v>2.5999999999999998E-10</v>
@@ -4675,12 +4667,12 @@
         <v>14</v>
       </c>
       <c r="K171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B172" s="5">
         <v>-6.2700000000000001E-6</v>
@@ -4695,18 +4687,18 @@
         <v>14</v>
       </c>
       <c r="K172" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B173" s="5">
         <v>-7.4999999999999993E-5</v>
       </c>
       <c r="C173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
@@ -4715,52 +4707,52 @@
         <v>14</v>
       </c>
       <c r="K173" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B174" s="5">
         <v>6.8900000000000005E-4</v>
       </c>
       <c r="C174" t="s">
+        <v>46</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>14</v>
+      </c>
+      <c r="K174" t="s">
         <v>47</v>
-      </c>
-      <c r="D174" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="K174" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B175">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="C175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D175" t="s">
+        <v>63</v>
+      </c>
+      <c r="F175" t="s">
+        <v>14</v>
+      </c>
+      <c r="K175" t="s">
         <v>64</v>
-      </c>
-      <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="K175" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B176">
         <v>3.2599999999999997E-2</v>
@@ -4769,24 +4761,24 @@
         <v>25</v>
       </c>
       <c r="D176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F176" t="s">
         <v>14</v>
       </c>
       <c r="K176" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B177" s="5">
         <v>-6.8899999999999999E-7</v>
       </c>
       <c r="C177" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D177" t="s">
         <v>27</v>
@@ -4795,12 +4787,12 @@
         <v>14</v>
       </c>
       <c r="K177" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B178" s="5">
         <f>(B167-1)*3.14</f>
@@ -4827,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
@@ -4843,7 +4835,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
@@ -4875,7 +4867,7 @@
         <v>28</v>
       </c>
       <c r="B187" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
@@ -4883,7 +4875,7 @@
         <v>22</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
@@ -4922,7 +4914,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4938,15 +4930,15 @@
         <v>18</v>
       </c>
       <c r="G191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H191" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B192" s="4">
         <v>2.3730000000000002</v>
@@ -4961,15 +4953,15 @@
         <v>14</v>
       </c>
       <c r="G192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H192" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B193" s="4">
         <v>0.11</v>
@@ -4987,7 +4979,7 @@
         <v>23</v>
       </c>
       <c r="I193" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -5016,7 +5008,7 @@
     </row>
     <row r="195" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B195" s="4">
         <f>0.01*B192</f>
@@ -5035,10 +5027,10 @@
         <v>24</v>
       </c>
       <c r="H195" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I195" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -5049,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -5065,7 +5057,7 @@
         <v>2</v>
       </c>
       <c r="B199" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -5097,7 +5089,7 @@
         <v>28</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -5105,7 +5097,7 @@
         <v>22</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -5144,7 +5136,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5160,15 +5152,15 @@
         <v>18</v>
       </c>
       <c r="G207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H207" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B208" s="4">
         <v>1.93</v>
@@ -5183,15 +5175,15 @@
         <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H208" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B209" s="4">
         <v>0.5</v>
@@ -5200,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="E209" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F209" t="s">
         <v>17</v>
@@ -5209,7 +5201,7 @@
         <v>23</v>
       </c>
       <c r="I209" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -5238,7 +5230,7 @@
     </row>
     <row r="211" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B211" s="4">
         <f>0.01*B208</f>
@@ -5257,10 +5249,10 @@
         <v>24</v>
       </c>
       <c r="H211" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I211" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -5271,7 +5263,7 @@
         <v>0</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -5287,7 +5279,7 @@
         <v>2</v>
       </c>
       <c r="B215" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
@@ -5319,7 +5311,7 @@
         <v>28</v>
       </c>
       <c r="B219" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -5327,7 +5319,7 @@
         <v>22</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -5366,7 +5358,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -5382,15 +5374,15 @@
         <v>18</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B224" s="4">
         <v>2.4510000000000001</v>
@@ -5405,15 +5397,15 @@
         <v>14</v>
       </c>
       <c r="G224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H224" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B225" s="4">
         <v>0.2</v>
@@ -5431,7 +5423,7 @@
         <v>23</v>
       </c>
       <c r="I225" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -5460,7 +5452,7 @@
     </row>
     <row r="227" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B227" s="4">
         <f>0.01*B224</f>
@@ -5479,10 +5471,10 @@
         <v>24</v>
       </c>
       <c r="H227" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I227" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -5493,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -5509,7 +5501,7 @@
         <v>2</v>
       </c>
       <c r="B231" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -5541,7 +5533,7 @@
         <v>28</v>
       </c>
       <c r="B235" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
@@ -5549,7 +5541,7 @@
         <v>22</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -5588,7 +5580,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -5604,15 +5596,15 @@
         <v>18</v>
       </c>
       <c r="G239" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H239" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B240" s="4">
         <v>2.57</v>
@@ -5627,15 +5619,15 @@
         <v>14</v>
       </c>
       <c r="G240" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H240" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B241" s="4">
         <v>0.36</v>
@@ -5653,7 +5645,7 @@
         <v>23</v>
       </c>
       <c r="I241" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
@@ -5682,7 +5674,7 @@
     </row>
     <row r="243" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B243" s="4">
         <f>0.01*B240</f>
@@ -5701,10 +5693,10 @@
         <v>24</v>
       </c>
       <c r="H243" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I243" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
@@ -5718,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
@@ -5734,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="B248" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
@@ -5766,7 +5758,7 @@
         <v>28</v>
       </c>
       <c r="B252" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
@@ -5774,7 +5766,7 @@
         <v>22</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
@@ -5813,7 +5805,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5829,15 +5821,15 @@
         <v>18</v>
       </c>
       <c r="G256" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H256" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B257" s="4">
         <v>2.371</v>
@@ -5852,15 +5844,15 @@
         <v>14</v>
       </c>
       <c r="G257" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H257" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B258" s="4">
         <v>0.11</v>
@@ -5878,7 +5870,7 @@
         <v>23</v>
       </c>
       <c r="I258" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
@@ -5907,7 +5899,7 @@
     </row>
     <row r="260" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B260" s="4">
         <f>0.01*B257</f>
@@ -5926,10 +5918,10 @@
         <v>24</v>
       </c>
       <c r="H260" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I260" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
@@ -5940,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
@@ -5956,7 +5948,7 @@
         <v>2</v>
       </c>
       <c r="B264" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
@@ -5988,7 +5980,7 @@
         <v>28</v>
       </c>
       <c r="B268" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
@@ -5996,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
@@ -6035,7 +6027,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6051,15 +6043,15 @@
         <v>18</v>
       </c>
       <c r="G272" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H272" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B273" s="4">
         <v>4.5599999999999996</v>
@@ -6074,15 +6066,15 @@
         <v>14</v>
       </c>
       <c r="G273" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H273" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B274" s="4">
         <v>3.11</v>
@@ -6100,7 +6092,7 @@
         <v>23</v>
       </c>
       <c r="I274" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
@@ -6129,7 +6121,7 @@
     </row>
     <row r="276" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B276" s="4">
         <f>0.01*B273</f>
@@ -6148,10 +6140,10 @@
         <v>24</v>
       </c>
       <c r="H276" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I276" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
@@ -6165,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
@@ -6181,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="B281" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
@@ -6213,7 +6205,7 @@
         <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
@@ -6221,7 +6213,7 @@
         <v>22</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
@@ -6260,7 +6252,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6276,15 +6268,15 @@
         <v>18</v>
       </c>
       <c r="G289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H289" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B290" s="4">
         <v>2.5350000000000001</v>
@@ -6299,15 +6291,15 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H290" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B291" s="4">
         <v>0.46</v>
@@ -6325,7 +6317,7 @@
         <v>23</v>
       </c>
       <c r="I291" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
@@ -6354,7 +6346,7 @@
     </row>
     <row r="293" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B293" s="4">
         <f>0.01*B290</f>
@@ -6373,10 +6365,10 @@
         <v>24</v>
       </c>
       <c r="H293" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I293" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
@@ -6387,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
@@ -6403,7 +6395,7 @@
         <v>2</v>
       </c>
       <c r="B297" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
@@ -6435,7 +6427,7 @@
         <v>28</v>
       </c>
       <c r="B301" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
@@ -6443,7 +6435,7 @@
         <v>22</v>
       </c>
       <c r="B302" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
@@ -6482,7 +6474,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -6498,15 +6490,15 @@
         <v>18</v>
       </c>
       <c r="G305" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H305" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B306" s="4">
         <v>1.77</v>
@@ -6521,15 +6513,15 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H306" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B307" s="4">
         <v>0.57999999999999996</v>
@@ -6538,7 +6530,7 @@
         <v>13</v>
       </c>
       <c r="E307" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F307" t="s">
         <v>17</v>
@@ -6547,7 +6539,7 @@
         <v>23</v>
       </c>
       <c r="I307" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
@@ -6576,7 +6568,7 @@
     </row>
     <row r="309" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B309" s="4">
         <f>0.01*B306</f>
@@ -6595,10 +6587,10 @@
         <v>24</v>
       </c>
       <c r="H309" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I309" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
@@ -6609,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
@@ -6633,7 +6625,7 @@
         <v>2</v>
       </c>
       <c r="B314" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
@@ -6657,7 +6649,7 @@
         <v>22</v>
       </c>
       <c r="B317" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
@@ -6673,7 +6665,7 @@
         <v>28</v>
       </c>
       <c r="B319" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
@@ -6681,7 +6673,7 @@
         <v>22</v>
       </c>
       <c r="B320" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
@@ -6715,7 +6707,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6730,12 +6722,12 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6750,7 +6742,7 @@
         <v>18</v>
       </c>
       <c r="G324" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
@@ -6775,7 +6767,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B326">
         <v>0.13206758828730655</v>
@@ -6809,7 +6801,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B328">
         <v>12.456827894327896</v>
@@ -6824,7 +6816,7 @@
         <v>14</v>
       </c>
       <c r="G328" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="330" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -6832,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -6848,7 +6840,7 @@
         <v>2</v>
       </c>
       <c r="B332" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -6880,15 +6872,15 @@
         <v>28</v>
       </c>
       <c r="B336" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>22</v>
       </c>
-      <c r="B337" s="31" t="s">
-        <v>160</v>
+      <c r="B337" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
@@ -6921,7 +6913,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B340">
         <f>12.89</f>
@@ -6937,12 +6929,12 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6957,28 +6949,28 @@
         <v>18</v>
       </c>
       <c r="G341" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B342" s="4">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
       <c r="C342" t="s">
+        <v>46</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
         <v>47</v>
-      </c>
-      <c r="D342" t="s">
-        <v>13</v>
-      </c>
-      <c r="F342" t="s">
-        <v>14</v>
-      </c>
-      <c r="G342" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -7066,8 +7058,8 @@
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A347" s="30" t="s">
-        <v>158</v>
+      <c r="A347" t="s">
+        <v>156</v>
       </c>
       <c r="B347" s="4">
         <f>6240000/44900000</f>
@@ -7082,156 +7074,159 @@
       <c r="F347" t="s">
         <v>14</v>
       </c>
-      <c r="G347" s="30" t="s">
-        <v>159</v>
+      <c r="G347" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>137</v>
-      </c>
-      <c r="B348" s="4">
-        <v>0</v>
-      </c>
-      <c r="C348" t="s">
-        <v>25</v>
-      </c>
-      <c r="D348" t="s">
-        <v>13</v>
-      </c>
-      <c r="F348" t="s">
-        <v>14</v>
-      </c>
-      <c r="G348" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>71</v>
-      </c>
-      <c r="B349" s="5">
+        <v>70</v>
+      </c>
+      <c r="B348" s="5">
         <f>-B342/1000</f>
         <v>-6.8819599109131407E-2</v>
       </c>
-      <c r="C349" t="s">
-        <v>47</v>
-      </c>
-      <c r="D349" t="s">
+      <c r="C348" t="s">
+        <v>46</v>
+      </c>
+      <c r="D348" t="s">
         <v>27</v>
       </c>
-      <c r="F349" t="s">
-        <v>14</v>
-      </c>
-      <c r="G349" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B351" s="2" t="s">
-        <v>115</v>
+      <c r="B350" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>1</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1</v>
-      </c>
-      <c r="B352">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B353" t="s">
-        <v>115</v>
+        <v>5</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B355" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" t="s">
         <v>11</v>
       </c>
-      <c r="B357" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
-        <v>8</v>
+      <c r="D358" t="s">
+        <v>6</v>
+      </c>
+      <c r="E358" t="s">
+        <v>12</v>
+      </c>
+      <c r="F358" t="s">
+        <v>4</v>
+      </c>
+      <c r="G358" t="s">
+        <v>2</v>
+      </c>
+      <c r="H358" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>9</v>
-      </c>
-      <c r="B359" t="s">
-        <v>10</v>
+        <v>120</v>
+      </c>
+      <c r="B359">
+        <v>7.2924747866563216E-6</v>
       </c>
       <c r="C359" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D359" t="s">
-        <v>6</v>
-      </c>
-      <c r="E359" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F359" t="s">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="G359" t="s">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="H359" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
+        <v>123</v>
+      </c>
+      <c r="B360">
+        <v>7.4243599689681927E-4</v>
+      </c>
+      <c r="C360" t="s">
+        <v>25</v>
+      </c>
+      <c r="D360" t="s">
+        <v>13</v>
+      </c>
+      <c r="F360" t="s">
         <v>121</v>
       </c>
-      <c r="B360">
-        <v>7.2924747866563216E-6</v>
-      </c>
-      <c r="C360" t="s">
-        <v>26</v>
-      </c>
-      <c r="D360" t="s">
-        <v>13</v>
-      </c>
-      <c r="F360" t="s">
-        <v>122</v>
-      </c>
       <c r="G360" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H360" t="s">
         <v>24</v>
@@ -7239,22 +7234,22 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B361">
-        <v>7.4243599689681927E-4</v>
+        <v>4.1349883630721488E-7</v>
       </c>
       <c r="C361" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D361" t="s">
         <v>13</v>
       </c>
       <c r="F361" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G361" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H361" t="s">
         <v>24</v>
@@ -7262,22 +7257,23 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B362">
-        <v>4.1349883630721488E-7</v>
+        <f>0.00273079906904577/2300</f>
+        <v>1.1873039430633782E-6</v>
       </c>
       <c r="C362" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D362" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F362" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G362" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H362" t="s">
         <v>24</v>
@@ -7285,23 +7281,22 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B363">
-        <f>0.00273079906904577/2300</f>
-        <v>1.1873039430633782E-6</v>
+        <v>1.3045108429904572E-9</v>
       </c>
       <c r="C363" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D363" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F363" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G363" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H363" t="s">
         <v>24</v>
@@ -7309,22 +7304,22 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B364">
-        <v>1.3045108429904572E-9</v>
+        <v>1.5533182090707562E-11</v>
       </c>
       <c r="C364" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D364" t="s">
         <v>6</v>
       </c>
       <c r="F364" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G364" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H364" t="s">
         <v>24</v>
@@ -7332,52 +7327,29 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B365">
-        <v>1.5533182090707562E-11</v>
+        <v>1</v>
       </c>
       <c r="C365" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D365" t="s">
         <v>6</v>
       </c>
       <c r="F365" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="G365" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="H365" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A366" t="s">
-        <v>115</v>
-      </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-      <c r="C366" t="s">
-        <v>25</v>
-      </c>
-      <c r="D366" t="s">
-        <v>6</v>
-      </c>
-      <c r="F366" t="s">
-        <v>18</v>
-      </c>
-      <c r="G366" t="s">
-        <v>115</v>
-      </c>
-      <c r="H366" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K366" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:K365" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="B302" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B286" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
